--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,52 +776,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,31 +887,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,42 +1046,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1826,52 +1826,52 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1916,42 +1916,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1976,22 +1976,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2006,42 +2006,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2096,52 +2096,52 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,20 +2186,50 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Weak GPS signal</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>19</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Please fly with caution</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,52 +776,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,31 +887,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,42 +1046,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1826,52 +1826,52 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No GPS</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1916,42 +1916,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8-13</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1976,22 +1976,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2006,42 +2006,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and manually return to home</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2096,52 +2096,52 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,50 +2186,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>19</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Please fly with caution</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
